--- a/biology/Médecine/Hôpital_Ambroise_Paré_(Mons)/Hôpital_Ambroise_Paré_(Mons).xlsx
+++ b/biology/Médecine/Hôpital_Ambroise_Paré_(Mons)/Hôpital_Ambroise_Paré_(Mons).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Ambroise_Par%C3%A9_(Mons)</t>
+          <t>Hôpital_Ambroise_Paré_(Mons)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Ambroise_Par%C3%A9_(Mons)</t>
+          <t>Hôpital_Ambroise_Paré_(Mons)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,86 @@
           <t>Informations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le Centre hospitalier universitaire Ambroise Paré est un hôpital belge situé à Mons en province de Hainaut. Il fait partie de l'intercommunale « Centre Hospitalier Universitaire et Psychiatrique de Mons -Borinage » qui comprend également le CHP Chêne aux Haies[1]. L'hôpital porte le nom du célèbre chirurgien Ambroise Paré.
-Cet hôpital public est doté d’une capacité de 336 lits et est le principal employeur de la ville de Mons[1]. Il est situé à proximité des Ursulines et du Stade Tondreau.
-Fusion
-Il fusionne le 1er juillet 2023 avec le groupe Jolimont pour fonder le pôle hospitalier Helora. Le site devient Helora - Site Kennedy et un nouvel hôpital doit être construit à l'horizon 2030 à Jemappes, qui fusionnera les sites Montois de l'hôpital Saint-Joseph et celui d'Ambroise Paré.
-Anciens noms
-L'Hôpital Civil
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre hospitalier universitaire Ambroise Paré est un hôpital belge situé à Mons en province de Hainaut. Il fait partie de l'intercommunale « Centre Hospitalier Universitaire et Psychiatrique de Mons -Borinage » qui comprend également le CHP Chêne aux Haies. L'hôpital porte le nom du célèbre chirurgien Ambroise Paré.
+Cet hôpital public est doté d’une capacité de 336 lits et est le principal employeur de la ville de Mons. Il est situé à proximité des Ursulines et du Stade Tondreau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_Ambroise_Paré_(Mons)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Ambroise_Par%C3%A9_(Mons)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Informations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fusionne le 1er juillet 2023 avec le groupe Jolimont pour fonder le pôle hospitalier Helora. Le site devient Helora - Site Kennedy et un nouvel hôpital doit être construit à l'horizon 2030 à Jemappes, qui fusionnera les sites Montois de l'hôpital Saint-Joseph et celui d'Ambroise Paré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Ambroise_Paré_(Mons)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Ambroise_Par%C3%A9_(Mons)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Informations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciens noms</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Hôpital Civil
 Hôpital Saint-Georges</t>
         </is>
       </c>
